--- a/DaySale_2025-05-21_22-55.xlsx
+++ b/DaySale_2025-05-21_22-55.xlsx
@@ -470,6 +470,12 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>LIPANTHYL 300MG 30 CAPSULES</t>
   </si>
   <si>
@@ -558,9 +564,6 @@
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
   </si>
   <si>
     <t>92.00</t>
@@ -1375,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45798.954917773452</v>
+        <v>45798.955064855538</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -1384,7 +1387,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45798.954917773452</v>
+        <v>45798.955064855538</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -3157,7 +3160,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3165,10 +3168,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L71" s="8">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c t="s" r="M71" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3176,7 +3179,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B72" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -3184,7 +3187,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3192,7 +3195,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L72" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c t="s" r="M72" s="11">
         <v>14</v>
@@ -3211,15 +3214,15 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c t="s" r="K73" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L73" s="8">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c t="s" r="M73" s="11">
         <v>14</v>
@@ -3230,7 +3233,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B74" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -3238,15 +3241,15 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c t="s" r="K74" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L74" s="8">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c t="s" r="M74" s="11">
         <v>14</v>
@@ -3292,18 +3295,18 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c t="s" r="K76" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L76" s="8">
         <v>162</v>
       </c>
       <c t="s" r="M76" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3319,18 +3322,18 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c t="s" r="K77" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L77" s="8">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c t="s" r="M77" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3346,18 +3349,18 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c t="s" r="K78" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L78" s="8">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c t="s" r="M78" s="11">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3373,7 +3376,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3381,10 +3384,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L79" s="8">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c t="s" r="M79" s="11">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3392,7 +3395,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B80" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3400,18 +3403,18 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c t="s" r="K80" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L80" s="8">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c t="s" r="M80" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3427,7 +3430,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3454,7 +3457,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3462,10 +3465,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L82" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="M82" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3473,7 +3476,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B83" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3481,7 +3484,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3489,7 +3492,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L83" s="8">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c t="s" r="M83" s="11">
         <v>14</v>
@@ -3500,7 +3503,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B84" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3508,15 +3511,15 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c t="s" r="K84" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L84" s="8">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c t="s" r="M84" s="11">
         <v>14</v>
@@ -3527,7 +3530,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B85" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -3535,15 +3538,15 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c t="s" r="K85" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L85" s="8">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c t="s" r="M85" s="11">
         <v>14</v>
@@ -3554,7 +3557,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B86" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3562,7 +3565,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3570,7 +3573,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L86" s="8">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c t="s" r="M86" s="11">
         <v>14</v>
@@ -3589,7 +3592,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -3600,7 +3603,7 @@
         <v>181</v>
       </c>
       <c t="s" r="M87" s="11">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -3616,7 +3619,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -3624,10 +3627,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L88" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="M88" s="11">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -3635,7 +3638,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B89" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -3643,7 +3646,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -3651,7 +3654,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L89" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="M89" s="11">
         <v>18</v>
@@ -3662,7 +3665,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B90" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3670,7 +3673,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -3678,10 +3681,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L90" s="8">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c t="s" r="M90" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -3697,7 +3700,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -3705,7 +3708,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L91" s="8">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c t="s" r="M91" s="11">
         <v>14</v>
@@ -3716,7 +3719,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B92" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -3724,7 +3727,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -3732,10 +3735,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L92" s="8">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c t="s" r="M92" s="11">
-        <v>192</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -3743,7 +3746,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B93" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -3751,7 +3754,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -3759,10 +3762,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L93" s="8">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c t="s" r="M93" s="11">
-        <v>47</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -3778,7 +3781,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -3786,10 +3789,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L94" s="8">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c t="s" r="M94" s="11">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -3797,7 +3800,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B95" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -3805,7 +3808,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -3813,10 +3816,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L95" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="M95" s="11">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -3824,7 +3827,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B96" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -3832,18 +3835,18 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c t="s" r="K96" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L96" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="M96" s="11">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3851,7 +3854,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B97" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -3859,18 +3862,18 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c t="s" r="K97" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L97" s="8">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c t="s" r="M97" s="11">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -3886,7 +3889,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -3894,10 +3897,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L98" s="8">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c t="s" r="M98" s="11">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -3905,7 +3908,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B99" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -3913,7 +3916,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -3921,7 +3924,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L99" s="8">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c t="s" r="M99" s="11">
         <v>14</v>
@@ -3932,7 +3935,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B100" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -3940,7 +3943,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -3948,10 +3951,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L100" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="M100" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -3959,7 +3962,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B101" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -3967,7 +3970,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -3975,7 +3978,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L101" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="M101" s="11">
         <v>18</v>
@@ -3986,7 +3989,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B102" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -3994,7 +3997,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4002,10 +4005,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L102" s="8">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c t="s" r="M102" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4029,7 +4032,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L103" s="8">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c t="s" r="M103" s="11">
         <v>14</v>
@@ -4040,7 +4043,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B104" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -4048,7 +4051,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4056,7 +4059,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L104" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="M104" s="11">
         <v>14</v>
@@ -4067,7 +4070,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B105" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -4075,7 +4078,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4083,10 +4086,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L105" s="8">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c t="s" r="M105" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4102,7 +4105,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4110,10 +4113,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L106" s="8">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c t="s" r="M106" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4129,15 +4132,15 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c t="s" r="K107" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L107" s="8">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c t="s" r="M107" s="11">
         <v>14</v>
@@ -4156,18 +4159,18 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c t="s" r="K108" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L108" s="8">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c t="s" r="M108" s="11">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4175,7 +4178,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B109" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -4191,10 +4194,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L109" s="8">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c t="s" r="M109" s="11">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4210,7 +4213,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4218,10 +4221,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L110" s="8">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c t="s" r="M110" s="11">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4229,7 +4232,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B111" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -4237,7 +4240,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4245,10 +4248,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L111" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="M111" s="11">
-        <v>18</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4256,7 +4259,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B112" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -4264,7 +4267,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -4272,10 +4275,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L112" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="M112" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -4283,7 +4286,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B113" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -4291,7 +4294,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -4299,10 +4302,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L113" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="M113" s="11">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -4310,7 +4313,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B114" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -4318,7 +4321,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -4326,10 +4329,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L114" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="M114" s="11">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -4337,7 +4340,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B115" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -4345,7 +4348,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -4353,10 +4356,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L115" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="M115" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -4364,7 +4367,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B116" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -4372,7 +4375,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -4380,7 +4383,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L116" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="M116" s="11">
         <v>14</v>
@@ -4391,7 +4394,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B117" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -4404,13 +4407,13 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c t="s" r="K117" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L117" s="8">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c t="s" r="M117" s="11">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -4426,7 +4429,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -4434,10 +4437,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L118" s="8">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c t="s" r="M118" s="11">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -4453,7 +4456,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -4461,10 +4464,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L119" s="8">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c t="s" r="M119" s="11">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -4472,7 +4475,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B120" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -4480,7 +4483,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -4499,7 +4502,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B121" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -4507,7 +4510,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -4515,10 +4518,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L121" s="8">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c t="s" r="M121" s="11">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4526,7 +4529,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B122" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -4534,7 +4537,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -4542,10 +4545,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L122" s="8">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c t="s" r="M122" s="11">
-        <v>246</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -4553,7 +4556,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B123" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -4561,7 +4564,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -4569,10 +4572,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L123" s="8">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c t="s" r="M123" s="11">
-        <v>28</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -4588,7 +4591,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -4596,7 +4599,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L124" s="8">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c t="s" r="M124" s="11">
         <v>28</v>
@@ -4607,7 +4610,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B125" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -4623,10 +4626,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L125" s="8">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c t="s" r="M125" s="11">
-        <v>251</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -4634,7 +4637,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B126" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -4650,10 +4653,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L126" s="8">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c t="s" r="M126" s="11">
-        <v>84</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4669,7 +4672,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -4677,10 +4680,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L127" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="M127" s="11">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -4696,7 +4699,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -4704,7 +4707,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L128" s="8">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c t="s" r="M128" s="11">
         <v>14</v>
@@ -4715,7 +4718,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B129" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -4723,7 +4726,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -4731,7 +4734,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L129" s="8">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c t="s" r="M129" s="11">
         <v>14</v>
@@ -4742,7 +4745,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B130" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -4750,7 +4753,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -4758,10 +4761,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L130" s="8">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c t="s" r="M130" s="11">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -4777,7 +4780,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -4785,10 +4788,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L131" s="8">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c t="s" r="M131" s="11">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4804,7 +4807,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -4812,7 +4815,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L132" s="8">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c t="s" r="M132" s="11">
         <v>14</v>
@@ -4831,7 +4834,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -4839,7 +4842,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L133" s="8">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c t="s" r="M133" s="11">
         <v>14</v>
@@ -4850,7 +4853,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B134" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -4858,7 +4861,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -4866,7 +4869,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L134" s="8">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c t="s" r="M134" s="11">
         <v>14</v>
@@ -4877,7 +4880,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B135" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -4885,7 +4888,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -4893,7 +4896,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L135" s="8">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c t="s" r="M135" s="11">
         <v>14</v>
@@ -4904,7 +4907,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B136" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -4912,7 +4915,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -4920,35 +4923,62 @@
         <v>52</v>
       </c>
       <c t="s" r="L136" s="8">
+        <v>267</v>
+      </c>
+      <c t="s" r="M136" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c t="s" r="B137" s="8">
         <v>268</v>
       </c>
-      <c t="s" r="M136" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="12">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>11</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c t="s" r="K137" s="10">
+        <v>52</v>
+      </c>
+      <c t="s" r="L137" s="8">
         <v>269</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c t="s" r="F137" s="13">
+      <c t="s" r="M137" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="12">
         <v>270</v>
       </c>
-      <c r="G137" s="13"/>
-      <c r="H137" s="14"/>
-      <c t="s" r="I137" s="15">
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c t="s" r="F138" s="13">
         <v>271</v>
       </c>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="14"/>
+      <c t="s" r="I138" s="15">
+        <v>272</v>
+      </c>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="270">
+  <mergeCells count="272">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -5216,9 +5246,11 @@
     <mergeCell ref="H135:J135"/>
     <mergeCell ref="B136:G136"/>
     <mergeCell ref="H136:J136"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="I137:M137"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="I138:M138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-21_22-55.xlsx
+++ b/DaySale_2025-05-21_22-55.xlsx
@@ -95,66 +95,66 @@
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -750,9 +750,6 @@
   </si>
   <si>
     <t>3.00</t>
-  </si>
-  <si>
-    <t>9:0</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -1378,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45798.955064855538</v>
+        <v>45798.955243399316</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -1387,7 +1384,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45798.955064855538</v>
+        <v>45798.955243399316</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1578,7 +1575,7 @@
         <v>29</v>
       </c>
       <c t="s" r="M12" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1648,7 +1645,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1740,7 +1737,7 @@
         <v>45</v>
       </c>
       <c t="s" r="M18" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1748,7 +1745,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B19" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1756,7 +1753,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2107,7 +2104,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2172,7 +2169,7 @@
         <v>82</v>
       </c>
       <c t="s" r="M34" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2215,7 +2212,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2361,7 +2358,7 @@
         <v>98</v>
       </c>
       <c t="s" r="M41" s="11">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2998,7 +2995,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3322,7 +3319,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3430,7 +3427,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3630,7 +3627,7 @@
         <v>183</v>
       </c>
       <c t="s" r="M88" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -3792,7 +3789,7 @@
         <v>92</v>
       </c>
       <c t="s" r="M94" s="11">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -3889,7 +3886,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -3943,7 +3940,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4078,7 +4075,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4132,7 +4129,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4440,7 +4437,7 @@
         <v>201</v>
       </c>
       <c t="s" r="M118" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -4548,7 +4545,7 @@
         <v>201</v>
       </c>
       <c t="s" r="M122" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -4575,7 +4572,7 @@
         <v>246</v>
       </c>
       <c t="s" r="M123" s="11">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -4583,7 +4580,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B124" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -4602,7 +4599,7 @@
         <v>201</v>
       </c>
       <c t="s" r="M124" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -4610,7 +4607,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B125" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -4626,10 +4623,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L125" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="M125" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -4637,7 +4634,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B126" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -4656,7 +4653,7 @@
         <v>230</v>
       </c>
       <c t="s" r="M126" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4664,7 +4661,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B127" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -4691,7 +4688,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B128" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -4718,7 +4715,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B129" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -4726,7 +4723,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -4745,7 +4742,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B130" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -4753,7 +4750,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -4761,7 +4758,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L130" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="M130" s="11">
         <v>14</v>
@@ -4772,7 +4769,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B131" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -4791,7 +4788,7 @@
         <v>13</v>
       </c>
       <c t="s" r="M131" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4799,7 +4796,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B132" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -4826,7 +4823,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B133" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -4853,7 +4850,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B134" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -4869,7 +4866,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L134" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="M134" s="11">
         <v>14</v>
@@ -4880,7 +4877,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B135" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -4888,7 +4885,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -4907,7 +4904,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B136" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -4923,7 +4920,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L136" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="M136" s="11">
         <v>14</v>
@@ -4934,7 +4931,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B137" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -4950,7 +4947,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L137" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="M137" s="11">
         <v>14</v>
@@ -4958,19 +4955,19 @@
     </row>
     <row r="138" ht="16.5" customHeight="1">
       <c t="s" r="A138" s="12">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c t="s" r="F138" s="13">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
       <c t="s" r="I138" s="15">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J138" s="15"/>
       <c r="K138" s="15"/>

--- a/DaySale_2025-05-21_22-55.xlsx
+++ b/DaySale_2025-05-21_22-55.xlsx
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>220.00</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
@@ -1375,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45798.955243399316</v>
+        <v>45798.955429580237</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -1384,7 +1387,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45798.955243399316</v>
+        <v>45798.955429580237</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -2320,7 +2323,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2331,7 +2334,7 @@
         <v>96</v>
       </c>
       <c t="s" r="M40" s="11">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2590,7 +2593,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2598,10 +2601,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L50" s="8">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c t="s" r="M50" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2609,7 +2612,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B51" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2617,7 +2620,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2625,10 +2628,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L51" s="8">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c t="s" r="M51" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2636,7 +2639,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B52" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2644,7 +2647,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2652,10 +2655,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L52" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="M52" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2663,7 +2666,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B53" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2671,7 +2674,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2679,7 +2682,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L53" s="8">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c t="s" r="M53" s="11">
         <v>18</v>
@@ -2706,7 +2709,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L54" s="8">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c t="s" r="M54" s="11">
         <v>18</v>
@@ -2717,7 +2720,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B55" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2725,7 +2728,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2733,10 +2736,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L55" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="M55" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2744,7 +2747,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B56" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2757,10 +2760,10 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c t="s" r="K56" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L56" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="M56" s="11">
         <v>14</v>
@@ -2771,7 +2774,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B57" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2779,18 +2782,18 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c t="s" r="K57" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L57" s="8">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c t="s" r="M57" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2806,7 +2809,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2814,10 +2817,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L58" s="8">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c t="s" r="M58" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2825,7 +2828,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B59" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2833,15 +2836,15 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c t="s" r="K59" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L59" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="M59" s="11">
         <v>14</v>
@@ -2852,7 +2855,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B60" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2860,15 +2863,15 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c t="s" r="K60" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L60" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="M60" s="11">
         <v>14</v>
@@ -2879,7 +2882,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B61" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2887,7 +2890,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2895,10 +2898,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L61" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="M61" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2906,7 +2909,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B62" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2919,13 +2922,13 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c t="s" r="K62" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L62" s="8">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c t="s" r="M62" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -2941,15 +2944,15 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c t="s" r="K63" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L63" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="M63" s="11">
         <v>14</v>
@@ -2968,7 +2971,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2976,7 +2979,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L64" s="8">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c t="s" r="M64" s="11">
         <v>14</v>
@@ -2987,7 +2990,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B65" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2995,7 +2998,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3003,10 +3006,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L65" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="M65" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3014,7 +3017,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B66" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3022,7 +3025,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3030,10 +3033,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L66" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="M66" s="11">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3041,7 +3044,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B67" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3049,7 +3052,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3057,10 +3060,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L67" s="8">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c t="s" r="M67" s="11">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3084,10 +3087,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L68" s="8">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c t="s" r="M68" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3103,7 +3106,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3111,10 +3114,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L69" s="8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c t="s" r="M69" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3122,7 +3125,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B70" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3130,7 +3133,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3138,7 +3141,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L70" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="M70" s="11">
         <v>14</v>
@@ -3149,7 +3152,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B71" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -3157,7 +3160,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3165,10 +3168,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L71" s="8">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c t="s" r="M71" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3176,7 +3179,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B72" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -3184,7 +3187,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3192,10 +3195,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L72" s="8">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c t="s" r="M72" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3211,7 +3214,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3219,7 +3222,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L73" s="8">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c t="s" r="M73" s="11">
         <v>14</v>
@@ -3230,7 +3233,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B74" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -3238,15 +3241,15 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c t="s" r="K74" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L74" s="8">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c t="s" r="M74" s="11">
         <v>14</v>
@@ -3265,15 +3268,15 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c t="s" r="K75" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L75" s="8">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c t="s" r="M75" s="11">
         <v>14</v>
@@ -3284,7 +3287,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B76" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3300,7 +3303,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L76" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="M76" s="11">
         <v>14</v>
@@ -3311,7 +3314,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B77" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -3319,18 +3322,18 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c t="s" r="K77" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L77" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="M77" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3338,7 +3341,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B78" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3346,18 +3349,18 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c t="s" r="K78" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L78" s="8">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c t="s" r="M78" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3365,7 +3368,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B79" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -3373,18 +3376,18 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c t="s" r="K79" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L79" s="8">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c t="s" r="M79" s="11">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3392,7 +3395,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B80" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3400,7 +3403,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3408,10 +3411,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L80" s="8">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c t="s" r="M80" s="11">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3427,18 +3430,18 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c t="s" r="K81" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L81" s="8">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c t="s" r="M81" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3446,7 +3449,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B82" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3454,7 +3457,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3462,7 +3465,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L82" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="M82" s="11">
         <v>18</v>
@@ -3473,7 +3476,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B83" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3481,7 +3484,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3489,10 +3492,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L83" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="M83" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3500,7 +3503,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B84" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3508,7 +3511,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3516,7 +3519,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L84" s="8">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c t="s" r="M84" s="11">
         <v>14</v>
@@ -3535,15 +3538,15 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c t="s" r="K85" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L85" s="8">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c t="s" r="M85" s="11">
         <v>14</v>
@@ -3562,15 +3565,15 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c t="s" r="K86" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L86" s="8">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c t="s" r="M86" s="11">
         <v>14</v>
@@ -3589,7 +3592,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -3597,7 +3600,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L87" s="8">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c t="s" r="M87" s="11">
         <v>14</v>
@@ -3608,7 +3611,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B88" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -3616,7 +3619,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -3624,10 +3627,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L88" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="M88" s="11">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -3635,7 +3638,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B89" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -3643,7 +3646,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -3651,10 +3654,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L89" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="M89" s="11">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -3662,7 +3665,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B90" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3670,7 +3673,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -3678,7 +3681,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L90" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="M90" s="11">
         <v>18</v>
@@ -3689,7 +3692,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B91" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -3697,7 +3700,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -3705,10 +3708,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L91" s="8">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c t="s" r="M91" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3724,7 +3727,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -3732,7 +3735,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L92" s="8">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c t="s" r="M92" s="11">
         <v>14</v>
@@ -3743,7 +3746,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B93" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -3751,7 +3754,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -3759,10 +3762,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L93" s="8">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c t="s" r="M93" s="11">
-        <v>193</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -3770,7 +3773,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B94" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -3778,7 +3781,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -3786,10 +3789,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L94" s="8">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c t="s" r="M94" s="11">
-        <v>28</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -3805,7 +3808,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -3813,10 +3816,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L95" s="8">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c t="s" r="M95" s="11">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -3824,7 +3827,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B96" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -3832,7 +3835,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -3840,10 +3843,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L96" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="M96" s="11">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3851,7 +3854,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B97" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -3859,18 +3862,18 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c t="s" r="K97" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L97" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="M97" s="11">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -3878,7 +3881,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B98" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -3886,18 +3889,18 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c t="s" r="K98" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L98" s="8">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c t="s" r="M98" s="11">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -3913,7 +3916,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -3921,10 +3924,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L99" s="8">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c t="s" r="M99" s="11">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -3932,7 +3935,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B100" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -3940,7 +3943,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -3948,7 +3951,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L100" s="8">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c t="s" r="M100" s="11">
         <v>14</v>
@@ -3959,7 +3962,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B101" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -3967,7 +3970,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -3975,10 +3978,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L101" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="M101" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3986,7 +3989,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B102" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -3994,7 +3997,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4002,7 +4005,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L102" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="M102" s="11">
         <v>18</v>
@@ -4013,7 +4016,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B103" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -4021,7 +4024,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4029,10 +4032,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L103" s="8">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c t="s" r="M103" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4056,7 +4059,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L104" s="8">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c t="s" r="M104" s="11">
         <v>14</v>
@@ -4067,7 +4070,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B105" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -4075,7 +4078,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4083,7 +4086,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L105" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="M105" s="11">
         <v>14</v>
@@ -4094,7 +4097,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B106" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -4102,7 +4105,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4110,10 +4113,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L106" s="8">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c t="s" r="M106" s="11">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4129,7 +4132,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4137,10 +4140,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L107" s="8">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c t="s" r="M107" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4156,15 +4159,15 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c t="s" r="K108" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L108" s="8">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c t="s" r="M108" s="11">
         <v>14</v>
@@ -4183,18 +4186,18 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c t="s" r="K109" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c t="s" r="L109" s="8">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c t="s" r="M109" s="11">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4202,7 +4205,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B110" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -4218,10 +4221,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L110" s="8">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c t="s" r="M110" s="11">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4237,7 +4240,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4245,10 +4248,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L111" s="8">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c t="s" r="M111" s="11">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4256,7 +4259,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B112" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -4264,7 +4267,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -4272,10 +4275,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L112" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="M112" s="11">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -4283,7 +4286,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B113" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -4291,7 +4294,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -4299,10 +4302,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L113" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="M113" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -4310,7 +4313,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B114" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -4318,7 +4321,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -4326,10 +4329,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L114" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="M114" s="11">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -4337,7 +4340,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B115" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -4345,7 +4348,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -4353,10 +4356,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L115" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="M115" s="11">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -4364,7 +4367,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B116" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -4372,7 +4375,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -4380,10 +4383,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L116" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="M116" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4391,7 +4394,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B117" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -4399,7 +4402,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -4407,7 +4410,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L117" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="M117" s="11">
         <v>14</v>
@@ -4418,7 +4421,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B118" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -4431,13 +4434,13 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c t="s" r="K118" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c t="s" r="L118" s="8">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c t="s" r="M118" s="11">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -4453,7 +4456,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -4461,10 +4464,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L119" s="8">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c t="s" r="M119" s="11">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -4480,7 +4483,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -4488,10 +4491,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L120" s="8">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c t="s" r="M120" s="11">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -4499,7 +4502,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B121" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -4507,7 +4510,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -4526,7 +4529,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B122" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -4534,7 +4537,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -4542,10 +4545,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L122" s="8">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c t="s" r="M122" s="11">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -4553,7 +4556,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B123" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -4561,7 +4564,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -4569,10 +4572,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L123" s="8">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c t="s" r="M123" s="11">
-        <v>204</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -4580,7 +4583,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B124" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -4588,7 +4591,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -4596,10 +4599,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L124" s="8">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c t="s" r="M124" s="11">
-        <v>46</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -4615,7 +4618,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -4623,7 +4626,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L125" s="8">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c t="s" r="M125" s="11">
         <v>46</v>
@@ -4634,7 +4637,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B126" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -4650,10 +4653,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L126" s="8">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c t="s" r="M126" s="11">
-        <v>251</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4661,7 +4664,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B127" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -4677,10 +4680,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L127" s="8">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c t="s" r="M127" s="11">
-        <v>84</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -4696,7 +4699,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -4704,10 +4707,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L128" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="M128" s="11">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -4723,7 +4726,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -4731,7 +4734,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L129" s="8">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c t="s" r="M129" s="11">
         <v>14</v>
@@ -4742,7 +4745,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B130" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -4750,7 +4753,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -4758,7 +4761,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L130" s="8">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c t="s" r="M130" s="11">
         <v>14</v>
@@ -4769,7 +4772,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B131" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -4777,7 +4780,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -4785,10 +4788,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L131" s="8">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c t="s" r="M131" s="11">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4804,7 +4807,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -4812,10 +4815,10 @@
         <v>52</v>
       </c>
       <c t="s" r="L132" s="8">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c t="s" r="M132" s="11">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -4831,7 +4834,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -4839,7 +4842,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L133" s="8">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c t="s" r="M133" s="11">
         <v>14</v>
@@ -4858,7 +4861,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -4866,7 +4869,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L134" s="8">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c t="s" r="M134" s="11">
         <v>14</v>
@@ -4877,7 +4880,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B135" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -4885,7 +4888,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -4893,7 +4896,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L135" s="8">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c t="s" r="M135" s="11">
         <v>14</v>
@@ -4904,7 +4907,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B136" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -4912,7 +4915,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -4920,7 +4923,7 @@
         <v>52</v>
       </c>
       <c t="s" r="L136" s="8">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c t="s" r="M136" s="11">
         <v>14</v>
@@ -4931,7 +4934,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B137" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -4939,7 +4942,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -4947,35 +4950,62 @@
         <v>52</v>
       </c>
       <c t="s" r="L137" s="8">
+        <v>267</v>
+      </c>
+      <c t="s" r="M137" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c t="s" r="B138" s="8">
         <v>268</v>
       </c>
-      <c t="s" r="M137" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="12">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>11</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c t="s" r="K138" s="10">
+        <v>52</v>
+      </c>
+      <c t="s" r="L138" s="8">
         <v>269</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c t="s" r="F138" s="13">
+      <c t="s" r="M138" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="12">
         <v>270</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="14"/>
-      <c t="s" r="I138" s="15">
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c t="s" r="F139" s="13">
         <v>271</v>
       </c>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="14"/>
+      <c t="s" r="I139" s="15">
+        <v>272</v>
+      </c>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="274">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -5245,9 +5275,11 @@
     <mergeCell ref="H136:J136"/>
     <mergeCell ref="B137:G137"/>
     <mergeCell ref="H137:J137"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="I138:M138"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="I139:M139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
